--- a/DB_FRIENDS/Book.xlsx
+++ b/DB_FRIENDS/Book.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9282C292-01BA-4BB6-84CC-BC896B570D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\JAVA\friends\DB_FRIENDS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598DE417-1C89-4157-9C50-9F4F18853C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN" sheetId="2" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ADMIN</t>
   </si>
@@ -88,6 +93,9 @@
   </si>
   <si>
     <t>3.jpeg</t>
+  </si>
+  <si>
+    <t>sotto_descrizione</t>
   </si>
 </sst>
 </file>
@@ -111,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,13 +142,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -481,7 +520,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -523,13 +562,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AD175D-C8E8-49B5-A9AB-60DC71105440}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,25 +604,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D05F2F-C428-40CC-8F6A-D1482E308CA7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -593,27 +633,33 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -628,9 +674,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
